--- a/api method and action.xlsx
+++ b/api method and action.xlsx
@@ -1,19 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N109297\OneDrive - Citizens\Desktop\myOwn\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skwong/CitizensBank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7F60FF-AA1B-410B-87B3-75834580D3D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB60585-301B-3F4E-9344-9A2D4F0FA2B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30030" yWindow="1860" windowWidth="21600" windowHeight="11385" xr2:uid="{9EB6AD79-4C8E-4B7D-81B4-9FB1B0E7DEC8}"/>
+    <workbookView xWindow="8540" yWindow="5640" windowWidth="31000" windowHeight="14080" activeTab="1" xr2:uid="{9EB6AD79-4C8E-4B7D-81B4-9FB1B0E7DEC8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="APIs" sheetId="1" r:id="rId1"/>
+    <sheet name="Project Structure" sheetId="6" r:id="rId2"/>
+    <sheet name="s3 terraForm" sheetId="17" r:id="rId3"/>
+    <sheet name="UI Project Structure" sheetId="16" r:id="rId4"/>
+    <sheet name="contoller.java" sheetId="10" r:id="rId5"/>
+    <sheet name="command request patterns" sheetId="11" r:id="rId6"/>
+    <sheet name="application.yml" sheetId="3" r:id="rId7"/>
+    <sheet name="applicationS3.yml" sheetId="4" r:id="rId8"/>
+    <sheet name="db migration code" sheetId="5" r:id="rId9"/>
+    <sheet name="dataSource.java" sheetId="2" r:id="rId10"/>
+    <sheet name="Api response and exceptionhandl" sheetId="12" r:id="rId11"/>
+    <sheet name="ApiException.java" sheetId="7" r:id="rId12"/>
+    <sheet name="UI Archit and layout" sheetId="15" r:id="rId13"/>
+    <sheet name="ApiExceptionHandler.java" sheetId="8" r:id="rId14"/>
+    <sheet name="ApiRequestException.java" sheetId="9" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="355">
   <si>
     <t>Lender/Worklist/CreditProcessing/ssn/id</t>
   </si>
@@ -171,13 +185,2392 @@
   </si>
   <si>
     <t xml:space="preserve">Retrieve a list of Record ID based on LastName     </t>
+  </si>
+  <si>
+    <t>spring:</t>
+  </si>
+  <si>
+    <t>profiles:</t>
+  </si>
+  <si>
+    <t>active: @spring.profiles.active@</t>
+  </si>
+  <si>
+    <t>app:</t>
+  </si>
+  <si>
+    <t>datasource:</t>
+  </si>
+  <si>
+    <t>username: postgres</t>
+  </si>
+  <si>
+    <t>password: password</t>
+  </si>
+  <si>
+    <t>pool-size: 30</t>
+  </si>
+  <si>
+    <t>jdbc-url: jdbc:postgresql://localhost:5432/</t>
+  </si>
+  <si>
+    <t>server:</t>
+  </si>
+  <si>
+    <t>port: 5000</t>
+  </si>
+  <si>
+    <t>username: amigoscode</t>
+  </si>
+  <si>
+    <t>password: 123456789</t>
+  </si>
+  <si>
+    <t>jdbc-url: jdbc:postgresql://fullstackspringbootdb.celswdmxhcr1.eu-west-1.rds.amazonaws.com:5432/appWArchive</t>
+  </si>
+  <si>
+    <t>ethanskwong</t>
+  </si>
+  <si>
+    <t>CreateloanListTable.sql</t>
+  </si>
+  <si>
+    <t>AddNullContraintToLoan.sql</t>
+  </si>
+  <si>
+    <t>LoanEnum.sql</t>
+  </si>
+  <si>
+    <t>DropLoanCheckConstraint.sql</t>
+  </si>
+  <si>
+    <t>CREATE TABLE IF NOT EXISTS student (</t>
+  </si>
+  <si>
+    <t>first_name VARCHAR(100) NOT NULL,</t>
+  </si>
+  <si>
+    <t>last_name VARCHAR(100) NOT NULL,</t>
+  </si>
+  <si>
+    <t>email VARCHAR(100) NOT NULL UNIQUE,</t>
+  </si>
+  <si>
+    <t>gender VARCHAR(6) NOT NULL</t>
+  </si>
+  <si>
+    <t>CHECK (</t>
+  </si>
+  <si>
+    <t>gender = 'MALE' OR</t>
+  </si>
+  <si>
+    <t>gender = 'male' OR</t>
+  </si>
+  <si>
+    <t>gender = 'FEMALE' OR</t>
+  </si>
+  <si>
+    <t>gender = 'female'</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>CREATE TABLE IF NOT EXISTS loan (</t>
+  </si>
+  <si>
+    <t>app_id UUID PRIMARY KEY NOT NULL,</t>
+  </si>
+  <si>
+    <t>name VARCHAR(255) NOT NULL UNIQUE,</t>
+  </si>
+  <si>
+    <t>description TEXT NOT NULL,</t>
+  </si>
+  <si>
+    <t>department VARCHAR(255),</t>
+  </si>
+  <si>
+    <t>student_id UUID NOT NULL REFERENCES student (student_id),</t>
+  </si>
+  <si>
+    <t>start_date DATE NOT NULL,</t>
+  </si>
+  <si>
+    <t>end_date DATE NOT NULL,</t>
+  </si>
+  <si>
+    <t>CreateStudentTable.sql</t>
+  </si>
+  <si>
+    <t>loan_id UUID NOT NULL PRIMARY KEY,</t>
+  </si>
+  <si>
+    <t>coApplicant_name VARCHAR(100)</t>
+  </si>
+  <si>
+    <t>CREATE TABLE IF NOT EXISTS student_loan (</t>
+  </si>
+  <si>
+    <t>loan_id UUID NOT NULL REFERENCES loan (loan_id),</t>
+  </si>
+  <si>
+    <t>loanAmount INTEGER CHECK (loanAmount &gt;= 0 AND loanAmount &lt;= 100),</t>
+  </si>
+  <si>
+    <t>UNIQUE (student_id, loan_id)</t>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> course ALTER department </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>SET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>NOT NULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>CREATE TYPE gender AS ENUM ('MALE', 'FEMALE');</t>
+  </si>
+  <si>
+    <t>ALTER TABLE student</t>
+  </si>
+  <si>
+    <t>ALTER COLUMN gender TYPE gender</t>
+  </si>
+  <si>
+    <t>USING (gender::gender)</t>
+  </si>
+  <si>
+    <t>CREATE TYPE loan AS ENUM ('300-ERLV10', '301-ERLV15','302-ERLV20');</t>
+  </si>
+  <si>
+    <t>ALTER TABLE loanType</t>
+  </si>
+  <si>
+    <t>ALTER COLUMN loanType TYPE loanType</t>
+  </si>
+  <si>
+    <t>USING (loanType::loanType)</t>
+  </si>
+  <si>
+    <t>DROP CONSTRAINT IF EXISTS student_gender_check;</t>
+  </si>
+  <si>
+    <t>package com.amigoscode.demo.datasource;</t>
+  </si>
+  <si>
+    <t>import com.zaxxer.hikari.HikariDataSource;</t>
+  </si>
+  <si>
+    <t>import org.springframework.boot.context.properties.ConfigurationProperties;</t>
+  </si>
+  <si>
+    <t>import org.springframework.boot.jdbc.DataSourceBuilder;</t>
+  </si>
+  <si>
+    <t>import org.springframework.context.annotation.Bean;</t>
+  </si>
+  <si>
+    <t>import org.springframework.context.annotation.Configuration;</t>
+  </si>
+  <si>
+    <t>@Configuration</t>
+  </si>
+  <si>
+    <t>public class Datasource {</t>
+  </si>
+  <si>
+    <t>@Bean</t>
+  </si>
+  <si>
+    <t>@ConfigurationProperties("app.datasource")</t>
+  </si>
+  <si>
+    <t>return DataSourceBuilder</t>
+  </si>
+  <si>
+    <t>.create()</t>
+  </si>
+  <si>
+    <t>.build();</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>public AppWorkDataSource appWorkDataSource() {</t>
+  </si>
+  <si>
+    <t>.type(AppWorkDataSource.class)</t>
+  </si>
+  <si>
+    <t>package com.amigoscode.demo.exception;</t>
+  </si>
+  <si>
+    <t>import org.springframework.http.HttpStatus;</t>
+  </si>
+  <si>
+    <t>import java.time.ZonedDateTime;</t>
+  </si>
+  <si>
+    <t>public class ApiException {</t>
+  </si>
+  <si>
+    <t>private final String message;</t>
+  </si>
+  <si>
+    <t>private final HttpStatus httpStatus;</t>
+  </si>
+  <si>
+    <t>private final ZonedDateTime timestamp;</t>
+  </si>
+  <si>
+    <t>public ApiException(String message,</t>
+  </si>
+  <si>
+    <t>HttpStatus httpStatus,</t>
+  </si>
+  <si>
+    <t>ZonedDateTime timestamp) {</t>
+  </si>
+  <si>
+    <t>this.message = message;</t>
+  </si>
+  <si>
+    <t>this.httpStatus = httpStatus;</t>
+  </si>
+  <si>
+    <t>this.timestamp = timestamp;</t>
+  </si>
+  <si>
+    <t>public String getMessage() {</t>
+  </si>
+  <si>
+    <t>return message;</t>
+  </si>
+  <si>
+    <t>public HttpStatus getHttpStatus() {</t>
+  </si>
+  <si>
+    <t>return httpStatus;</t>
+  </si>
+  <si>
+    <t>public ZonedDateTime getTimestamp() {</t>
+  </si>
+  <si>
+    <t>return timestamp;</t>
+  </si>
+  <si>
+    <t>import org.springframework.http.ResponseEntity;</t>
+  </si>
+  <si>
+    <t>import org.springframework.web.bind.annotation.ControllerAdvice;</t>
+  </si>
+  <si>
+    <t>import org.springframework.web.bind.annotation.ExceptionHandler;</t>
+  </si>
+  <si>
+    <t>import org.springframework.web.context.request.WebRequest;</t>
+  </si>
+  <si>
+    <t>import java.time.ZoneId;</t>
+  </si>
+  <si>
+    <t>@ControllerAdvice</t>
+  </si>
+  <si>
+    <t>public class ApiExceptionHandler {</t>
+  </si>
+  <si>
+    <t>@ExceptionHandler(value = {ApiRequestException.class})</t>
+  </si>
+  <si>
+    <t>public ResponseEntity&lt;Object&gt; handleApiRequestException(ApiRequestException e, WebRequest webRequest) {</t>
+  </si>
+  <si>
+    <t>// 1. Create payload containing exception details</t>
+  </si>
+  <si>
+    <t>HttpStatus badRequest = HttpStatus.BAD_REQUEST;</t>
+  </si>
+  <si>
+    <t>ApiException apiException = new ApiException(</t>
+  </si>
+  <si>
+    <t>e.getMessage(),</t>
+  </si>
+  <si>
+    <t>badRequest,</t>
+  </si>
+  <si>
+    <t>ZonedDateTime.now(ZoneId.of("Z"))</t>
+  </si>
+  <si>
+    <t>// 2. Return response entity</t>
+  </si>
+  <si>
+    <t>return new ResponseEntity&lt;&gt;(apiException, badRequest);</t>
+  </si>
+  <si>
+    <t>public class ApiRequestException extends RuntimeException {</t>
+  </si>
+  <si>
+    <t>public ApiRequestException(String message) {</t>
+  </si>
+  <si>
+    <t>super(message);</t>
+  </si>
+  <si>
+    <t>public ApiRequestException(String message, Throwable cause) {</t>
+  </si>
+  <si>
+    <t>super(message, cause);</t>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t>com.citizensbank.appw</t>
+  </si>
+  <si>
+    <t>config</t>
+  </si>
+  <si>
+    <t>controller</t>
+  </si>
+  <si>
+    <t>dto</t>
+  </si>
+  <si>
+    <t>exception</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>repository</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>util</t>
+  </si>
+  <si>
+    <t>resouces</t>
+  </si>
+  <si>
+    <t>Notes: Models and DTOs &lt;--&gt;UI layer</t>
+  </si>
+  <si>
+    <t>DTO -- transfer data with interface that persisted in the databaes</t>
+  </si>
+  <si>
+    <t>Mapping of models and DTOs is handled by ModelMapper in utility</t>
+  </si>
+  <si>
+    <t>eg class loan -- pricing information/repayment schedule</t>
+  </si>
+  <si>
+    <t>creditor</t>
+  </si>
+  <si>
+    <t>DTO- reflection of what the interface or the api response demands</t>
+  </si>
+  <si>
+    <t>DTO-- composition relationship that reduces the overall size of response packet that travel over HTTP from server to client</t>
+  </si>
+  <si>
+    <t>Service layer -- AppService and RateRetrivalService</t>
+  </si>
+  <si>
+    <t>Service layer --- provides all the api methods like login/finduserbyAppID/ProfileDTO</t>
+  </si>
+  <si>
+    <t>eg LoanDTO/PricingDTO</t>
+  </si>
+  <si>
+    <t>Model-- relationship and reference to various DTO collection</t>
+  </si>
+  <si>
+    <t>DTO--Data transfer Object</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>Security -- is present under config package based on Active directory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">API authentication </t>
+  </si>
+  <si>
+    <t>https://localhost:8080/api/auth</t>
+  </si>
+  <si>
+    <t>bucket</t>
+  </si>
+  <si>
+    <t>contollers -- binds everything together from the moment a request is intercepted till the response is prepared and sent back</t>
+  </si>
+  <si>
+    <t>contollers -- layer versioned to support multiple versions of application</t>
+  </si>
+  <si>
+    <t>admin panel or any other controllers work on the spring WebMVC concept.  They response to incoming web requests with Spring's modelAndView objects containing the data to be shown on the view/forms.</t>
+  </si>
+  <si>
+    <t>@Controller</t>
+  </si>
+  <si>
+    <r>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD73A49"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6F42C1"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>DashboardController</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <t>@Autowired</t>
+  </si>
+  <si>
+    <r>
+      <t>private</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>UserService</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> userService;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>@GetMapping</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF005CC5"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD73A49"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF032F62"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>"/dashboard"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>ModelAndView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6F42C1"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>dashboard</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>() {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ModelAndView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> modelAndView </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD73A49"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD73A49"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>ModelAndView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF032F62"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>"dashboard"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Authentication</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> auth </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD73A49"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>SecurityContextHolder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD73A49"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>getContext()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD73A49"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>getAuthentication();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>UserDto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> userDto </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD73A49"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> userService</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD73A49"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>findUserByEmail(auth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD73A49"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>getName());</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>modelAndView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD73A49"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>addObject(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF032F62"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>"currentUser"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>, userDto);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>modelAndView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD73A49"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>addObject(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF032F62"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>"userName"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>, userDto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD73A49"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>getFullName());</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> modelAndView;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>private</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Loan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>Service</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> loanService;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">There many approaches for mapping the incoming request vs using the DTOs vs Using Model directly. </t>
+  </si>
+  <si>
+    <t>request/command objects when transferring objects</t>
+  </si>
+  <si>
+    <t>@Data</t>
+  </si>
+  <si>
+    <r>
+      <t>@Accessors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF005CC5"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>chain</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD73A49"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF005CC5"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>@NotBlank</t>
+  </si>
+  <si>
+    <r>
+      <t>@Size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF005CC5"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>min</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD73A49"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF005CC5"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF005CC5"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>max</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD73A49"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF005CC5"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>private</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> code;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>private</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> make;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD73A49"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6F42C1"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>FormCommand</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <t>@MIN(value = 10, message = "Cannot make a loan less than 10 dollars")</t>
+  </si>
+  <si>
+    <r>
+      <t>private</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD73A49"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> amount;</t>
+    </r>
+  </si>
+  <si>
+    <t>an example of a request sent via API</t>
+  </si>
+  <si>
+    <t>An example command pattern based class</t>
+  </si>
+  <si>
+    <t>@Getter</t>
+  </si>
+  <si>
+    <t>@Setter</t>
+  </si>
+  <si>
+    <t>@NoArgsConstructor</t>
+  </si>
+  <si>
+    <r>
+      <t>@JsonIgnoreProperties</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF005CC5"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>ignoreUnknown</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD73A49"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF005CC5"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>@NotEmpty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF005CC5"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>message</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD73A49"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF032F62"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>"{constraints.NotEmpty.message}"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>@JsonFormat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF005CC5"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>shape</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD73A49"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>JsonFormat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD73A49"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>Shape</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD73A49"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF005CC5"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>STRING</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF005CC5"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>pattern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD73A49"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF032F62"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>"yyyy-MM-dd"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>@NotNull</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF005CC5"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>message</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD73A49"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF032F62"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>"{constraints.NotEmpty.message}"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>@Temporal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>TemporalType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD73A49"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF005CC5"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>DATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD73A49"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> AppID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6F42C1"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>Request</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>private</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> appID;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>private</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>Date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> appDate;</t>
+    </r>
+  </si>
+  <si>
+    <t>API Response and Exception Handling</t>
+  </si>
+  <si>
+    <t>EntityType and</t>
+  </si>
+  <si>
+    <t>ExceptionType</t>
+  </si>
+  <si>
+    <t>The EntityType enum contains all the entity names that we are using in the system for persistence and those which can result in a run time exception.</t>
+  </si>
+  <si>
+    <t>The ExceptionType enum consists of the different entity level exceptions such as the EntityNotFound and DuplicateEntity exceptions.</t>
+  </si>
+  <si>
+    <t>eg throw exception(USER, ENTITY_NOT_FOUND, userDto.getEmail());</t>
+  </si>
+  <si>
+    <t>or eg user.not.found=Requested user with email - {0} does not exist. In custom.properties file</t>
+  </si>
+  <si>
+    <t>By simply replacing the {0} param with the email address included in the thrown exception you can get a well formatted message to be shown to the user or to be sent back as the response of the REST API call. The definition of the BRSException class is as follows :</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>“status”: “OK”,</t>
+  </si>
+  <si>
+    <t>“payload”: [</t>
+  </si>
+  <si>
+    <t>},</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>“loan”: “ABC”,</t>
+  </si>
+  <si>
+    <t>“name”: “Eric”,</t>
+  </si>
+  <si>
+    <t>“name”: “Shalini”,</t>
+  </si>
+  <si>
+    <t>“detail”: “Approved”</t>
+  </si>
+  <si>
+    <t>“detail”: “Pending”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  “status”: “NOT_FOUND”,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  “errors”: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  }</t>
+  </si>
+  <si>
+    <t>both type of responses, one with a HTTP-200 and another with HTTP-404 the response payload doesn’t change its structure and the calling framework can blindly accept the response knowing that there is a status and a error or payload field in the JSON object.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  “errors”: “No loan‘abac’ is available at this time.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    “timestamp”: “2021–06–28 T07:47:10.990+0000”,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    “message”: “Requested with user does not exist.”</t>
+  </si>
+  <si>
+    <t>You may get into issues while trying out the Swagger-Ui for those HTTP-GET requests which have a body with parameters, don’t worry it’s not the fault of the code it is Swagger’s decision to stop supporting body params for GET and DELETE requests.</t>
+  </si>
+  <si>
+    <t>UI Architecture</t>
+  </si>
+  <si>
+    <t>The UI is server side rendered using Thymeleaf templates (preferred templating engine in Spring).</t>
+  </si>
+  <si>
+    <t>a website has many pages and each page has several reusable components (e.g. header, navigation, sidebar, and footer).</t>
+  </si>
+  <si>
+    <t>The decorator pattern used by the Thymeleaf Layout dialect solves these issues.</t>
+  </si>
+  <si>
+    <t>React</t>
+  </si>
+  <si>
+    <t>Components</t>
+  </si>
+  <si>
+    <t>ListAppComponent.jsx</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   loanServicejs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   AppServices.js</t>
+  </si>
+  <si>
+    <t>using axios http://localhost:8080/api/v1/loans"</t>
+  </si>
+  <si>
+    <t>getLoans()</t>
+  </si>
+  <si>
+    <t>componentDidMount()</t>
+  </si>
+  <si>
+    <t>AppService.getLoands().then((res) =&gt;{ });</t>
+  </si>
+  <si>
+    <t>config-- AmazonConfig use amazonaws.services.s3.amazons3.   using the access key and sceret keys bucket name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bucket -- enum bucketName </t>
+  </si>
+  <si>
+    <t>filesRetrive--AmazonS3</t>
+  </si>
+  <si>
+    <t>fileRetrive</t>
+  </si>
+  <si>
+    <t>provider "aws" {</t>
+  </si>
+  <si>
+    <t>region = "us-west-2"</t>
+  </si>
+  <si>
+    <t>resource "aws_s3_bucket" "example" {</t>
+  </si>
+  <si>
+    <t>bucket = "my-test-s3-terraform-bucket"</t>
+  </si>
+  <si>
+    <t>acl = "private"</t>
+  </si>
+  <si>
+    <t>versioning {</t>
+  </si>
+  <si>
+    <t>enabled = true</t>
+  </si>
+  <si>
+    <t>tags {</t>
+  </si>
+  <si>
+    <t>Name = "my-test-s3-terraform-bucket"</t>
+  </si>
+  <si>
+    <t>resource "aws_s3_bucket" "bucket" {</t>
+  </si>
+  <si>
+    <t>bucket = "terraform-20181219040316452900000001"</t>
+  </si>
+  <si>
+    <t>lifecycle_rule {</t>
+  </si>
+  <si>
+    <t>transition {</t>
+  </si>
+  <si>
+    <t>days = 30</t>
+  </si>
+  <si>
+    <t>storage_class = "STANDARD_IA"</t>
+  </si>
+  <si>
+    <t>days = 60</t>
+  </si>
+  <si>
+    <t>storage_class = "GLACIER"</t>
+  </si>
+  <si>
+    <t># This configures aws – required in all terraform files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    access_key = "YOUR_ACCESS_KEY"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    secret_key = "YOUR_SECRET_KEY"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    region = "YOUR_REGION"</t>
+  </si>
+  <si>
+    <t># Defines a user that should be able to write to you test bucket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    name = "YOUR_TEST_BUCKET_USER"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    name = "test"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    policy= &lt;&lt;EOF</t>
+  </si>
+  <si>
+    <t>EOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    name = "YOUR_PROD_BUCKET_USER"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    name = "prod"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    bucket = "YOUR_PROD_BUCKET_NAME"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        max_age_seconds = 3000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    policy = &lt;&lt;EOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    bucket = "YOUR_TEST_BUCKET_NAME"</t>
+  </si>
+  <si>
+    <t>resource "aws_iam_user" "test_user" {</t>
+  </si>
+  <si>
+    <t>resource "aws_iam_access_key" "test_user" {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    user = "${aws_iam_user.test_user.name}"</t>
+  </si>
+  <si>
+    <t>resource "aws_iam_user_policy" "test_user_ro" {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Version": "2012-10-17",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Statement": [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "Effect": "Allow",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "Action": "s3:*",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "Resource": [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "arn:aws:s3:::YOUR_TEST_BUCKET_NAME",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "arn:aws:s3:::YOUR_TEST_BUCKET_NAME*"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ]</t>
+  </si>
+  <si>
+    <t>resource "aws_iam_user" "prod_user" {</t>
+  </si>
+  <si>
+    <t>resource "aws_iam_access_key" "prod_user" {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    user = "${aws_iam_user.prod_user.name}"</t>
+  </si>
+  <si>
+    <t>resource "aws_iam_user_policy" "prod_user_ro" {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "arn:aws:s3:::YOUR_PROD_BUCKET_NAME",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "arn:aws:s3:::YOUR_PROD_BUCKET_NAME*"</t>
+  </si>
+  <si>
+    <t>resource "aws_s3_bucket" "prod_bucket" {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    acl = "public-read"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    cors_rule {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        allowed_headers = ["*"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        allowed_methods = ["PUT","POST"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        allowed_origins = ["*"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        expose_headers = ["ETag"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Version": "2008-10-17",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "Sid": "PublicReadForGetBucketObjects",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "Principal": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "AWS": "*"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "Action": "s3:GetObject",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "Resource": "arn:aws:s3:::YOUR_PROD_BUCKET_NAME*"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "Sid": "",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "AWS": "${aws_iam_user.prod_user.arn}"</t>
+  </si>
+  <si>
+    <t>resource "aws_s3_bucket" "test_bucket" {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "Sid": "PublicReadForGetTestBucketObjects",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "Resource": "arn:aws:s3:::YOUR_TEST_BUCKET_NAME*"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "AWS": "${aws_iam_user.test_user.arn}"</t>
+  </si>
+  <si>
+    <r>
+      <t>s3.tf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> file:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t># e.g. eu-west-1</t>
+    </r>
+  </si>
+  <si>
+    <t>profile</t>
+  </si>
+  <si>
+    <t>loan</t>
+  </si>
+  <si>
+    <t>Repository --- list&lt;userProfie&gt; getUserProfiels() and varios data structure</t>
+  </si>
+  <si>
+    <t>controllers-- restcontroller/requestMapping("api/vi/userProfile")</t>
+  </si>
+  <si>
+    <t>Repository -- UserProfileDataAccessService or LoanDataAccessService</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,13 +2578,154 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292E"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFD73A49"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF6F42C1"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF005CC5"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF032F62"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="21"/>
+      <color rgb="FF292929"/>
+      <name val="Charter"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="30"/>
+      <color rgb="FF292929"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF292929"/>
+      <name val="Charter"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF292929"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF292929"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -203,13 +2737,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -223,6 +2777,104 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>522982</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152931</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>154061</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>174275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D1CFF59-06D9-4340-BFA0-CCD118775BA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8768008" y="5359266"/>
+          <a:ext cx="7876105" cy="5314119"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6602627-81AC-6D4C-98BE-80F66E9751B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="825500" y="3606800"/>
+          <a:ext cx="9004300" cy="5067300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -522,219 +3174,3065 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F43C5E5B-DBC9-4B9E-A7DC-9895EA7BFFA4}">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" zoomScale="158" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="81.5" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A32" r:id="rId1" xr:uid="{FE8AC772-FF23-0B46-BB26-75CF5AA688D6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A117A607-AB1F-D34C-A426-0BCC4DE0C715}">
+  <dimension ref="A3:B22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="1:2" ht="16">
+      <c r="A3" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" ht="16">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" ht="16">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" ht="16">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861E1CE5-C9E9-964E-AC67-E96A96D98989}">
+  <dimension ref="A1:L35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="38">
+      <c r="A1" s="10" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="21">
+      <c r="A4" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+    </row>
+    <row r="5" spans="1:12" ht="21">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+    </row>
+    <row r="6" spans="1:12" ht="21">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+    </row>
+    <row r="7" spans="1:12" ht="21">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+    </row>
+    <row r="8" spans="1:12" ht="21">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+    </row>
+    <row r="9" spans="1:12" ht="21">
+      <c r="A9" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" spans="1:12" ht="21">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="14" spans="1:12" ht="21">
+      <c r="A14" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="21">
+      <c r="A15" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="21">
+      <c r="A16" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="21">
+      <c r="A17" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="21">
+      <c r="A18" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="21">
+      <c r="A19" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="21">
+      <c r="A20" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="21">
+      <c r="A21" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="21">
+      <c r="A22" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="21">
+      <c r="A23" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="21">
+      <c r="A24" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="21">
+      <c r="A25" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="21">
+      <c r="A26" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="21">
+      <c r="A27" s="13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="21">
+      <c r="A28" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="27">
+      <c r="A31" s="9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="27">
+      <c r="A35" s="9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D30C5DF-CB59-4F46-AD6F-36711B347907}">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16">
+      <c r="A1" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2" ht="16">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" ht="16">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" ht="16">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" ht="16">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" ht="16">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" ht="16">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="16">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" ht="16">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="16">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="16">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="16">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2" ht="16">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="16">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="16">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="16">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4C518E-F2A2-5B47-9518-14F76BCC0397}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="38">
+      <c r="A1" s="10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="27">
+      <c r="A6" s="9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="27">
+      <c r="A8" s="9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="27">
+      <c r="A10" s="9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BCA08CD-8B2B-8342-AD7A-8607137911D7}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16">
+      <c r="A1" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2" ht="16">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" ht="16">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" ht="16">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" ht="16">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" ht="16">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="16">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="16">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="16">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="16">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="16">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D0F5B3C-3B62-E547-B2FE-FB328EF92B0F}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16">
+      <c r="A1" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2" ht="16">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" ht="16">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" ht="16">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB2E96E1-5473-1D47-8AE1-F74BB4AA4671}">
+  <dimension ref="A2:V48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="191" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="B3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="C4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="C5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" t="s">
+        <v>173</v>
+      </c>
+      <c r="J5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="C6" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" t="s">
+        <v>174</v>
+      </c>
+      <c r="J6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="C7" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="C8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E8" t="s">
+        <v>351</v>
+      </c>
+      <c r="F8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="C9" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="C10" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="C11" t="s">
+        <v>162</v>
+      </c>
+      <c r="E11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="C12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E12" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="C13" t="s">
+        <v>187</v>
+      </c>
+      <c r="E13" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="C14" t="s">
+        <v>272</v>
+      </c>
+      <c r="E14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="E15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="E16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" t="s">
+        <v>170</v>
+      </c>
+      <c r="E17" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="E18" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="E19" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="E20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="E21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="E22" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="E23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="16">
+      <c r="E28" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="V28" s="14" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="16">
+      <c r="E29" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="V29" s="14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="16">
+      <c r="E30" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="V30" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="16">
+      <c r="E31" s="15"/>
+      <c r="V31" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="16">
+      <c r="E32" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="V32" s="14" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="33" spans="5:22" ht="16">
+      <c r="E33" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="V33" s="14" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="34" spans="5:22" ht="16">
+      <c r="E34" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="V34" s="15"/>
+    </row>
+    <row r="35" spans="5:22" ht="16">
+      <c r="E35" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="V35" s="14" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="36" spans="5:22" ht="16">
+      <c r="E36" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="V36" s="14" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="37" spans="5:22" ht="16">
+      <c r="E37" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="V37" s="15"/>
+    </row>
+    <row r="38" spans="5:22" ht="16">
+      <c r="E38" s="15"/>
+      <c r="V38" s="14" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="39" spans="5:22" ht="16">
+      <c r="E39" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="V39" s="14" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="40" spans="5:22" ht="16">
+      <c r="E40" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="V40" s="14" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="41" spans="5:22" ht="16">
+      <c r="E41" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="V41" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="5:22" ht="16">
+      <c r="E42" s="14"/>
+      <c r="V42" s="15"/>
+    </row>
+    <row r="43" spans="5:22" ht="16">
+      <c r="E43" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="V43" s="14" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="44" spans="5:22" ht="16">
+      <c r="E44" s="15"/>
+      <c r="V44" s="14" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="45" spans="5:22" ht="16">
+      <c r="E45" s="15"/>
+      <c r="V45" s="14" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="46" spans="5:22" ht="16">
+      <c r="E46" s="15"/>
+      <c r="V46" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="5:22" ht="16">
+      <c r="V47" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="5:22" ht="16">
+      <c r="V48" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9E5F1BE-CAE7-FC4B-A770-439AAA7080E2}">
+  <dimension ref="A1:B137"/>
+  <sheetViews>
+    <sheetView topLeftCell="A97" zoomScale="200" workbookViewId="0">
+      <selection activeCell="B2" sqref="A1:B137"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16">
+      <c r="A1" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="B1" s="15"/>
+    </row>
+    <row r="2" spans="1:2" ht="17">
+      <c r="A2" s="15"/>
+      <c r="B2" s="17" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17">
+      <c r="A3" s="15"/>
+      <c r="B3" s="18" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17">
+      <c r="A4" s="15"/>
+      <c r="B4" s="18" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17">
+      <c r="A5" s="15"/>
+      <c r="B5" s="18" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17">
+      <c r="A6" s="15"/>
+      <c r="B6" s="18" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17">
+      <c r="A7" s="15"/>
+      <c r="B7" s="18" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17">
+      <c r="A8" s="15"/>
+      <c r="B8" s="18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17">
+      <c r="A9" s="15"/>
+      <c r="B9" s="17" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17">
+      <c r="A10" s="15"/>
+      <c r="B10" s="18" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17">
+      <c r="A11" s="15"/>
+      <c r="B11" s="18" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="17">
+      <c r="A12" s="15"/>
+      <c r="B12" s="18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="17">
+      <c r="A13" s="15"/>
+      <c r="B13" s="18" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="17">
+      <c r="A14" s="15"/>
+      <c r="B14" s="18" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="17">
+      <c r="A15" s="15"/>
+      <c r="B15" s="18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="17">
+      <c r="A16" s="15"/>
+      <c r="B16" s="18" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="17">
+      <c r="A17" s="15"/>
+      <c r="B17" s="18" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="17">
+      <c r="A18" s="15"/>
+      <c r="B18" s="18" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="17">
+      <c r="A19" s="15"/>
+      <c r="B19" s="18" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="17">
+      <c r="A20" s="15"/>
+      <c r="B20" s="18" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="17">
+      <c r="A21" s="15"/>
+      <c r="B21" s="18" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="17">
+      <c r="A22" s="15"/>
+      <c r="B22" s="18" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="17">
+      <c r="A23" s="15"/>
+      <c r="B23" s="18" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="17">
+      <c r="A24" s="15"/>
+      <c r="B24" s="18" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="17">
+      <c r="A25" s="15"/>
+      <c r="B25" s="18" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="17">
+      <c r="A26" s="15"/>
+      <c r="B26" s="18" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="17">
+      <c r="A27" s="15"/>
+      <c r="B27" s="18" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="17">
+      <c r="A28" s="15"/>
+      <c r="B28" s="18" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="17">
+      <c r="A29" s="15"/>
+      <c r="B29" s="18" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="17">
+      <c r="A30" s="15"/>
+      <c r="B30" s="18" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="17">
+      <c r="A31" s="15"/>
+      <c r="B31" s="18" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="17">
+      <c r="A32" s="15"/>
+      <c r="B32" s="18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="17">
+      <c r="A33" s="15"/>
+      <c r="B33" s="18" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="17">
+      <c r="A34" s="15"/>
+      <c r="B34" s="18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="17">
+      <c r="A35" s="15"/>
+      <c r="B35" s="18" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="17">
+      <c r="A36" s="15"/>
+      <c r="B36" s="18" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="17">
+      <c r="A37" s="15"/>
+      <c r="B37" s="18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="17">
+      <c r="A38" s="15"/>
+      <c r="B38" s="18" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="17">
+      <c r="A39" s="15"/>
+      <c r="B39" s="18" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="17">
+      <c r="A40" s="15"/>
+      <c r="B40" s="18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="17">
+      <c r="A41" s="15"/>
+      <c r="B41" s="18" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="17">
+      <c r="A42" s="15"/>
+      <c r="B42" s="18" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="17">
+      <c r="A43" s="15"/>
+      <c r="B43" s="18" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="17">
+      <c r="A44" s="15"/>
+      <c r="B44" s="18" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="17">
+      <c r="A45" s="15"/>
+      <c r="B45" s="18" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="17">
+      <c r="A46" s="15"/>
+      <c r="B46" s="18" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="17">
+      <c r="A47" s="15"/>
+      <c r="B47" s="18" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="17">
+      <c r="A48" s="15"/>
+      <c r="B48" s="18" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="17">
+      <c r="A49" s="15"/>
+      <c r="B49" s="18" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="17">
+      <c r="A50" s="15"/>
+      <c r="B50" s="18" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="17">
+      <c r="A51" s="15"/>
+      <c r="B51" s="18" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="17">
+      <c r="A52" s="15"/>
+      <c r="B52" s="18" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="17">
+      <c r="A53" s="15"/>
+      <c r="B53" s="18" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="17">
+      <c r="A54" s="15"/>
+      <c r="B54" s="18" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="17">
+      <c r="A55" s="15"/>
+      <c r="B55" s="18" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="17">
+      <c r="A56" s="15"/>
+      <c r="B56" s="18" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="17">
+      <c r="A57" s="15"/>
+      <c r="B57" s="18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="17">
+      <c r="A58" s="15"/>
+      <c r="B58" s="18" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="17">
+      <c r="A59" s="15"/>
+      <c r="B59" s="18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="17">
+      <c r="A60" s="15"/>
+      <c r="B60" s="18" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="17">
+      <c r="A61" s="15"/>
+      <c r="B61" s="18" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="17">
+      <c r="A62" s="15"/>
+      <c r="B62" s="18" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="17">
+      <c r="A63" s="15"/>
+      <c r="B63" s="18" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="17">
+      <c r="A64" s="15"/>
+      <c r="B64" s="18" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="17">
+      <c r="A65" s="15"/>
+      <c r="B65" s="18" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="17">
+      <c r="A66" s="15"/>
+      <c r="B66" s="18" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="17">
+      <c r="A67" s="15"/>
+      <c r="B67" s="18" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="17">
+      <c r="A68" s="15"/>
+      <c r="B68" s="18" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="17">
+      <c r="A69" s="15"/>
+      <c r="B69" s="18" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="17">
+      <c r="A70" s="15"/>
+      <c r="B70" s="18" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="17">
+      <c r="A71" s="15"/>
+      <c r="B71" s="18" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="17">
+      <c r="A72" s="15"/>
+      <c r="B72" s="18" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="17">
+      <c r="A73" s="15"/>
+      <c r="B73" s="18" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="17">
+      <c r="A74" s="15"/>
+      <c r="B74" s="18" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="17">
+      <c r="A75" s="15"/>
+      <c r="B75" s="18" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="17">
+      <c r="A76" s="15"/>
+      <c r="B76" s="18" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="17">
+      <c r="A77" s="15"/>
+      <c r="B77" s="18" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="17">
+      <c r="A78" s="15"/>
+      <c r="B78" s="18" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="17">
+      <c r="A79" s="15"/>
+      <c r="B79" s="18" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="17">
+      <c r="A80" s="15"/>
+      <c r="B80" s="18" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="17">
+      <c r="A81" s="15"/>
+      <c r="B81" s="18" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="17">
+      <c r="A82" s="15"/>
+      <c r="B82" s="18" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="17">
+      <c r="A83" s="15"/>
+      <c r="B83" s="18" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="17">
+      <c r="A84" s="15"/>
+      <c r="B84" s="18" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="17">
+      <c r="A85" s="15"/>
+      <c r="B85" s="18" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="17">
+      <c r="A86" s="15"/>
+      <c r="B86" s="18" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="17">
+      <c r="A87" s="15"/>
+      <c r="B87" s="18" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="17">
+      <c r="A88" s="15"/>
+      <c r="B88" s="18" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="17">
+      <c r="A89" s="15"/>
+      <c r="B89" s="18" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="17">
+      <c r="A90" s="15"/>
+      <c r="B90" s="18" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="17">
+      <c r="A91" s="15"/>
+      <c r="B91" s="18" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="17">
+      <c r="A92" s="15"/>
+      <c r="B92" s="18" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="17">
+      <c r="A93" s="15"/>
+      <c r="B93" s="18" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="17">
+      <c r="A94" s="15"/>
+      <c r="B94" s="18" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="17">
+      <c r="A95" s="15"/>
+      <c r="B95" s="18" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="17">
+      <c r="A96" s="15"/>
+      <c r="B96" s="18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="17">
+      <c r="A97" s="15"/>
+      <c r="B97" s="18" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="17">
+      <c r="A98" s="15"/>
+      <c r="B98" s="18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="17">
+      <c r="A99" s="15"/>
+      <c r="B99" s="18" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="17">
+      <c r="A100" s="15"/>
+      <c r="B100" s="18" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="17">
+      <c r="A101" s="15"/>
+      <c r="B101" s="18" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="17">
+      <c r="A102" s="15"/>
+      <c r="B102" s="18" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="17">
+      <c r="A103" s="15"/>
+      <c r="B103" s="18" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="17">
+      <c r="A104" s="15"/>
+      <c r="B104" s="18" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="17">
+      <c r="A105" s="15"/>
+      <c r="B105" s="18" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="17">
+      <c r="A106" s="15"/>
+      <c r="B106" s="18" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="17">
+      <c r="A107" s="15"/>
+      <c r="B107" s="18" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="17">
+      <c r="A108" s="15"/>
+      <c r="B108" s="18" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="17">
+      <c r="A109" s="15"/>
+      <c r="B109" s="18" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="17">
+      <c r="A110" s="15"/>
+      <c r="B110" s="18" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="17">
+      <c r="A111" s="15"/>
+      <c r="B111" s="18" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="17">
+      <c r="A112" s="15"/>
+      <c r="B112" s="18" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="17">
+      <c r="A113" s="15"/>
+      <c r="B113" s="18" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="17">
+      <c r="A114" s="15"/>
+      <c r="B114" s="18" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="17">
+      <c r="A115" s="15"/>
+      <c r="B115" s="18" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="17">
+      <c r="A116" s="15"/>
+      <c r="B116" s="18" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="17">
+      <c r="A117" s="15"/>
+      <c r="B117" s="18" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="17">
+      <c r="A118" s="15"/>
+      <c r="B118" s="18" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="17">
+      <c r="A119" s="15"/>
+      <c r="B119" s="18" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="17">
+      <c r="A120" s="15"/>
+      <c r="B120" s="18" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="17">
+      <c r="A121" s="15"/>
+      <c r="B121" s="18" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="17">
+      <c r="A122" s="15"/>
+      <c r="B122" s="18" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="17">
+      <c r="A123" s="15"/>
+      <c r="B123" s="18" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="17">
+      <c r="A124" s="15"/>
+      <c r="B124" s="18" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="17">
+      <c r="A125" s="15"/>
+      <c r="B125" s="18" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="17">
+      <c r="A126" s="15"/>
+      <c r="B126" s="18" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="17">
+      <c r="A127" s="15"/>
+      <c r="B127" s="18" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="17">
+      <c r="A128" s="15"/>
+      <c r="B128" s="18" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="17">
+      <c r="A129" s="15"/>
+      <c r="B129" s="18" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="17">
+      <c r="A130" s="15"/>
+      <c r="B130" s="18" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="17">
+      <c r="A131" s="15"/>
+      <c r="B131" s="18" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="17">
+      <c r="A132" s="15"/>
+      <c r="B132" s="18" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="17">
+      <c r="A133" s="15"/>
+      <c r="B133" s="18" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="17">
+      <c r="A134" s="15"/>
+      <c r="B134" s="18" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="17">
+      <c r="A135" s="15"/>
+      <c r="B135" s="18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="17">
+      <c r="A136" s="15"/>
+      <c r="B136" s="18" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="17">
+      <c r="A137" s="15"/>
+      <c r="B137" s="18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46EA81F7-7AA6-E14E-81A8-BD8BA7512E49}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView zoomScale="158" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="B2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D3" t="s">
+        <v>267</v>
+      </c>
+      <c r="F3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="D7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC34DB7E-E9EC-B246-A3D0-6CB6E8B7F1E0}">
+  <dimension ref="A1:B34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16">
+      <c r="A1" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16">
+      <c r="A2" s="7"/>
+      <c r="B2" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" spans="1:2" ht="16">
+      <c r="A4" s="7"/>
+      <c r="B4" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16">
+      <c r="A5" s="7"/>
+      <c r="B5" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" spans="1:2" ht="16">
+      <c r="A7" s="7"/>
+      <c r="B7" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16">
+      <c r="A8" s="7"/>
+      <c r="B8" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:2" ht="16">
+      <c r="A10" s="7"/>
+      <c r="B10" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16">
+      <c r="A11" s="7"/>
+      <c r="B11" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16">
+      <c r="A12" s="7"/>
+      <c r="B12" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16">
+      <c r="A13" s="7"/>
+      <c r="B13" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16">
+      <c r="A14" s="7"/>
+      <c r="B14" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16">
+      <c r="A17" s="7"/>
+      <c r="B17" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" spans="1:2" ht="16">
+      <c r="A20" s="7"/>
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="1:2" ht="16">
+      <c r="A21" s="7"/>
+      <c r="B21" s="6"/>
+    </row>
+    <row r="22" spans="1:2" ht="16">
+      <c r="A22" s="7"/>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" ht="16">
+      <c r="A23" s="7"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" ht="16">
+      <c r="A24" s="7"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" ht="16">
+      <c r="A25" s="7"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" ht="16">
+      <c r="A26" s="7"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" ht="16">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" spans="1:2" ht="16">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" spans="1:2" ht="16">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+    </row>
+    <row r="30" spans="1:2" ht="16">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+    </row>
+    <row r="31" spans="1:2" ht="16">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+    </row>
+    <row r="32" spans="1:2" ht="16">
+      <c r="A32" s="7"/>
+      <c r="B32" s="6"/>
+    </row>
+    <row r="33" spans="1:2" ht="16">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+    </row>
+    <row r="34" spans="1:2" ht="16">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE925AA8-D94D-1649-A537-A6CBDCF62DAF}">
+  <dimension ref="A1:M15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:13" ht="27">
+      <c r="A1" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="16">
+      <c r="A2" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="16">
+      <c r="A3" s="7"/>
+      <c r="B3" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="L3" s="7"/>
+      <c r="M3" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="16">
+      <c r="A4" s="7"/>
+      <c r="B4" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="16">
+      <c r="A5" s="7"/>
+      <c r="B5" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="M5" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="16">
+      <c r="A6" s="7"/>
+      <c r="B6" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="M6" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="16">
+      <c r="A7" s="7"/>
+      <c r="B7" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="L7" s="7"/>
+      <c r="M7" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="16">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="16">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="16">
+      <c r="A10" s="7"/>
+      <c r="B10" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" ht="16">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="16">
+      <c r="A12" s="7"/>
+      <c r="B12" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="16">
+      <c r="A13" s="7"/>
+      <c r="B13" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="16">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="M14" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="16">
+      <c r="L15" s="7"/>
+      <c r="M15" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55FAE87-FF16-B44C-B357-5636A002D02D}">
+  <dimension ref="A2:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="81.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="69.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>7</v>
+    <row r="2" spans="1:2" ht="16">
+      <c r="A2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" ht="16">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D0451AB-7776-0843-837C-777A72C3B9A8}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16">
+      <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" ht="16">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" ht="16">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{654DA9D1-CCD5-1048-BF73-DCBFCD8E9D40}">
+  <dimension ref="A1:V22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:22" ht="16">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="16">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="16">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="16">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="16">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="16">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+    </row>
+    <row r="7" spans="1:22" ht="16">
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="16">
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="16">
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="16">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="16">
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="16">
+      <c r="G12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="16">
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+    </row>
+    <row r="14" spans="1:22" ht="16">
+      <c r="M14" s="1"/>
+      <c r="N14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="16">
+      <c r="M15" s="1"/>
+      <c r="N15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="16">
+      <c r="M16" s="1"/>
+      <c r="N16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="21:22" ht="16">
+      <c r="U21" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="21:22" ht="16">
+      <c r="U22" s="1"/>
+      <c r="V22" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007308479BE8D01141B162EAD05A7F3C62" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4a6829fd623e60f72ccde23a5c19636c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="39ac4842-b1c1-4e66-8d95-f47aaf6b84b9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ae761c23030618c00c7157c5c5147523" ns3:_="">
     <xsd:import namespace="39ac4842-b1c1-4e66-8d95-f47aaf6b84b9"/>
@@ -892,22 +6390,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77586FC9-43DF-40A2-990B-F0488D7C4D06}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="39ac4842-b1c1-4e66-8d95-f47aaf6b84b9"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2C2E926-E3D8-44CE-83AB-192B46F00B51}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{989D322E-7FE8-4524-979E-94852FB6B330}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -923,28 +6430,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2C2E926-E3D8-44CE-83AB-192B46F00B51}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77586FC9-43DF-40A2-990B-F0488D7C4D06}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="39ac4842-b1c1-4e66-8d95-f47aaf6b84b9"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/api method and action.xlsx
+++ b/api method and action.xlsx
@@ -2,32 +2,33 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skwong/CitizensBank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB60585-301B-3F4E-9344-9A2D4F0FA2B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEDB52B-533B-7445-9CBD-22F3EA5C987E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8540" yWindow="5640" windowWidth="31000" windowHeight="14080" activeTab="1" xr2:uid="{9EB6AD79-4C8E-4B7D-81B4-9FB1B0E7DEC8}"/>
+    <workbookView xWindow="8540" yWindow="5640" windowWidth="31000" windowHeight="14080" xr2:uid="{9EB6AD79-4C8E-4B7D-81B4-9FB1B0E7DEC8}"/>
   </bookViews>
   <sheets>
-    <sheet name="APIs" sheetId="1" r:id="rId1"/>
-    <sheet name="Project Structure" sheetId="6" r:id="rId2"/>
-    <sheet name="s3 terraForm" sheetId="17" r:id="rId3"/>
-    <sheet name="UI Project Structure" sheetId="16" r:id="rId4"/>
-    <sheet name="contoller.java" sheetId="10" r:id="rId5"/>
-    <sheet name="command request patterns" sheetId="11" r:id="rId6"/>
-    <sheet name="application.yml" sheetId="3" r:id="rId7"/>
-    <sheet name="applicationS3.yml" sheetId="4" r:id="rId8"/>
-    <sheet name="db migration code" sheetId="5" r:id="rId9"/>
-    <sheet name="dataSource.java" sheetId="2" r:id="rId10"/>
-    <sheet name="Api response and exceptionhandl" sheetId="12" r:id="rId11"/>
-    <sheet name="ApiException.java" sheetId="7" r:id="rId12"/>
-    <sheet name="UI Archit and layout" sheetId="15" r:id="rId13"/>
-    <sheet name="ApiExceptionHandler.java" sheetId="8" r:id="rId14"/>
-    <sheet name="ApiRequestException.java" sheetId="9" r:id="rId15"/>
+    <sheet name="index" sheetId="18" r:id="rId1"/>
+    <sheet name="APIs" sheetId="1" r:id="rId2"/>
+    <sheet name="Project Structure" sheetId="6" r:id="rId3"/>
+    <sheet name="s3 terraForm" sheetId="17" r:id="rId4"/>
+    <sheet name="UI Project Structure" sheetId="16" r:id="rId5"/>
+    <sheet name="contoller.java" sheetId="10" r:id="rId6"/>
+    <sheet name="command request patterns" sheetId="11" r:id="rId7"/>
+    <sheet name="application.yml" sheetId="3" r:id="rId8"/>
+    <sheet name="applicationS3.yml" sheetId="4" r:id="rId9"/>
+    <sheet name="db migration code" sheetId="5" r:id="rId10"/>
+    <sheet name="dataSource.java" sheetId="2" r:id="rId11"/>
+    <sheet name="Api response and exceptionhandl" sheetId="12" r:id="rId12"/>
+    <sheet name="ApiException.java" sheetId="7" r:id="rId13"/>
+    <sheet name="UI Archit and layout" sheetId="15" r:id="rId14"/>
+    <sheet name="ApiExceptionHandler.java" sheetId="8" r:id="rId15"/>
+    <sheet name="ApiRequestException.java" sheetId="9" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="370">
   <si>
     <t>Lender/Worklist/CreditProcessing/ssn/id</t>
   </si>
@@ -2563,7 +2564,52 @@
     <t>controllers-- restcontroller/requestMapping("api/vi/userProfile")</t>
   </si>
   <si>
-    <t>Repository -- UserProfileDataAccessService or LoanDataAccessService</t>
+    <t>APIs</t>
+  </si>
+  <si>
+    <t>Project Structure</t>
+  </si>
+  <si>
+    <t>s3 terraForm</t>
+  </si>
+  <si>
+    <t>UI Project Structure</t>
+  </si>
+  <si>
+    <t>contoller.java</t>
+  </si>
+  <si>
+    <t>command request patterns</t>
+  </si>
+  <si>
+    <t>application.yml</t>
+  </si>
+  <si>
+    <t>applicationS3.yml</t>
+  </si>
+  <si>
+    <t>db migration code</t>
+  </si>
+  <si>
+    <t>dataSource.java</t>
+  </si>
+  <si>
+    <t>Api response and exceptionhandl</t>
+  </si>
+  <si>
+    <t>ApiException.java</t>
+  </si>
+  <si>
+    <t>UI Archit and layout</t>
+  </si>
+  <si>
+    <t>ApiExceptionHandler.java</t>
+  </si>
+  <si>
+    <t>ApiRequestException.java</t>
+  </si>
+  <si>
+    <t>index</t>
   </si>
 </sst>
 </file>
@@ -3173,7 +3219,1227 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F7A0D8-F93F-224F-B5AA-481B7888E29B}">
+  <dimension ref="A1:A16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="5" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="5" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'index'!A1" display="index" xr:uid="{87E2773F-2E8B-6243-BBB6-38D54298CD70}"/>
+    <hyperlink ref="A2" location="'APIs'!A1" display="APIs" xr:uid="{EEF52191-EBD8-0147-94F3-C6CE0FE828CD}"/>
+    <hyperlink ref="A3" location="'Project Structure'!A1" display="Project Structure" xr:uid="{1EB25176-F9C5-AF43-B33C-F48092033B1D}"/>
+    <hyperlink ref="A4" location="'s3 terraForm'!A1" display="s3 terraForm" xr:uid="{9C491FF6-E88C-4640-A334-2B6EE3C4D875}"/>
+    <hyperlink ref="A5" location="'UI Project Structure'!A1" display="UI Project Structure" xr:uid="{9C2FBFA6-2150-5543-BE5A-150E6B8E550D}"/>
+    <hyperlink ref="A6" location="'contoller.java'!A1" display="contoller.java" xr:uid="{72F076F9-02F1-AD4A-A0EC-A9FE08F09FFC}"/>
+    <hyperlink ref="A7" location="'command request patterns'!A1" display="command request patterns" xr:uid="{9D014FE9-C6CE-A445-BEE2-489E58AFEE77}"/>
+    <hyperlink ref="A8" location="'application.yml'!A1" display="application.yml" xr:uid="{1F0D5A3B-D0A0-FC45-86FE-6C8CF9A788F3}"/>
+    <hyperlink ref="A9" location="'applicationS3.yml'!A1" display="applicationS3.yml" xr:uid="{D9978E22-5738-6043-B750-ADB26E916CFE}"/>
+    <hyperlink ref="A10" location="'db migration code'!A1" display="db migration code" xr:uid="{B7B1D506-588C-0245-9CDC-46EC10DE54BD}"/>
+    <hyperlink ref="A11" location="'dataSource.java'!A1" display="dataSource.java" xr:uid="{4BCEE363-D7F5-BE48-98FE-D8CD169AFD42}"/>
+    <hyperlink ref="A12" location="'Api response and exceptionhandl'!A1" display="Api response and exceptionhandl" xr:uid="{C2CBABDC-6639-7E44-B8FD-6701B488F93A}"/>
+    <hyperlink ref="A13" location="'ApiException.java'!A1" display="ApiException.java" xr:uid="{ED6B8700-3EFA-7F4B-A484-B6BC4C408D21}"/>
+    <hyperlink ref="A14" location="'UI Archit and layout'!A1" display="UI Archit and layout" xr:uid="{83284D58-31AC-7F43-9A05-EFE551D9C38F}"/>
+    <hyperlink ref="A15" location="'ApiExceptionHandler.java'!A1" display="ApiExceptionHandler.java" xr:uid="{D20D3CCA-2C3D-5B42-98AB-A765E5FBC0E1}"/>
+    <hyperlink ref="A16" location="'ApiRequestException.java'!A1" display="ApiRequestException.java" xr:uid="{FE6356CF-7F09-7546-8492-C83BB17E9C4B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{654DA9D1-CCD5-1048-BF73-DCBFCD8E9D40}">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:V22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:22" ht="16">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="16">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="16">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="16">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="16">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="16">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+    </row>
+    <row r="7" spans="1:22" ht="16">
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="16">
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="16">
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="16">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="16">
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="16">
+      <c r="G12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="16">
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+    </row>
+    <row r="14" spans="1:22" ht="16">
+      <c r="M14" s="1"/>
+      <c r="N14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="16">
+      <c r="M15" s="1"/>
+      <c r="N15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="16">
+      <c r="M16" s="1"/>
+      <c r="N16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="21:22" ht="16">
+      <c r="U21" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="21:22" ht="16">
+      <c r="U22" s="1"/>
+      <c r="V22" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A117A607-AB1F-D34C-A426-0BCC4DE0C715}">
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="A3:B22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="1:2" ht="16">
+      <c r="A3" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" ht="16">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" ht="16">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" ht="16">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861E1CE5-C9E9-964E-AC67-E96A96D98989}">
+  <sheetPr codeName="Sheet11"/>
+  <dimension ref="A1:L35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="38">
+      <c r="A1" s="10" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="21">
+      <c r="A4" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+    </row>
+    <row r="5" spans="1:12" ht="21">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+    </row>
+    <row r="6" spans="1:12" ht="21">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+    </row>
+    <row r="7" spans="1:12" ht="21">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+    </row>
+    <row r="8" spans="1:12" ht="21">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+    </row>
+    <row r="9" spans="1:12" ht="21">
+      <c r="A9" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" spans="1:12" ht="21">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="14" spans="1:12" ht="21">
+      <c r="A14" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="21">
+      <c r="A15" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="21">
+      <c r="A16" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="21">
+      <c r="A17" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="21">
+      <c r="A18" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="21">
+      <c r="A19" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="21">
+      <c r="A20" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="21">
+      <c r="A21" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="21">
+      <c r="A22" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="21">
+      <c r="A23" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="21">
+      <c r="A24" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="21">
+      <c r="A25" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="21">
+      <c r="A26" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="21">
+      <c r="A27" s="13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="21">
+      <c r="A28" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="27">
+      <c r="A31" s="9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="27">
+      <c r="A35" s="9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D30C5DF-CB59-4F46-AD6F-36711B347907}">
+  <sheetPr codeName="Sheet12"/>
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16">
+      <c r="A1" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2" ht="16">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" ht="16">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" ht="16">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" ht="16">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" ht="16">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" ht="16">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="16">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" ht="16">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="16">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="16">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="16">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2" ht="16">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="16">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="16">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="16">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4C518E-F2A2-5B47-9518-14F76BCC0397}">
+  <sheetPr codeName="Sheet13"/>
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="38">
+      <c r="A1" s="10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="27">
+      <c r="A6" s="9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="27">
+      <c r="A8" s="9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="27">
+      <c r="A10" s="9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BCA08CD-8B2B-8342-AD7A-8607137911D7}">
+  <sheetPr codeName="Sheet14"/>
+  <dimension ref="A1:B28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16">
+      <c r="A1" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2" ht="16">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" ht="16">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" ht="16">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" ht="16">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" ht="16">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="16">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="16">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="16">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="16">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="16">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D0F5B3C-3B62-E547-B2FE-FB328EF92B0F}">
+  <sheetPr codeName="Sheet15"/>
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16">
+      <c r="A1" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2" ht="16">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" ht="16">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" ht="16">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F43C5E5B-DBC9-4B9E-A7DC-9895EA7BFFA4}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="158" workbookViewId="0">
@@ -3399,871 +4665,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A117A607-AB1F-D34C-A426-0BCC4DE0C715}">
-  <dimension ref="A3:B22"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="3" spans="1:2" ht="16">
-      <c r="A3" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" ht="16">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="16">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="16">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:2" ht="16">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="16">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="16">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" ht="16">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="16">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="16">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="16">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="16">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="16">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="16">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="16">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="16">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861E1CE5-C9E9-964E-AC67-E96A96D98989}">
-  <dimension ref="A1:L35"/>
-  <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:12" ht="38">
-      <c r="A1" s="10" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="21">
-      <c r="A4" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-    </row>
-    <row r="5" spans="1:12" ht="21">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-    </row>
-    <row r="6" spans="1:12" ht="21">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-    </row>
-    <row r="7" spans="1:12" ht="21">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-    </row>
-    <row r="8" spans="1:12" ht="21">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-    </row>
-    <row r="9" spans="1:12" ht="21">
-      <c r="A9" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-    </row>
-    <row r="10" spans="1:12" ht="21">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-    </row>
-    <row r="14" spans="1:12" ht="21">
-      <c r="A14" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="21">
-      <c r="A15" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="21">
-      <c r="A16" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="21">
-      <c r="A17" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="21">
-      <c r="A18" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="21">
-      <c r="A19" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="21">
-      <c r="A20" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="21">
-      <c r="A21" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="21">
-      <c r="A22" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="21">
-      <c r="A23" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="21">
-      <c r="A24" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="21">
-      <c r="A25" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="21">
-      <c r="A26" s="13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="21">
-      <c r="A27" s="13" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="21">
-      <c r="A28" s="13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="27">
-      <c r="A31" s="9" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="27">
-      <c r="A35" s="9" t="s">
-        <v>254</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D30C5DF-CB59-4F46-AD6F-36711B347907}">
-  <dimension ref="A1:B32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16">
-      <c r="A1" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="16">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:2" ht="16">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" ht="16">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" ht="16">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:2" ht="16">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="16">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="16">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="16">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:2" ht="16">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="16">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="16">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="16">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="16">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="16">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="16">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="16">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" ht="16">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="16">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="16">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="16">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:2" ht="16">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="16">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="16">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="16">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="1:2" ht="16">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="16">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="16">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="16">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4C518E-F2A2-5B47-9518-14F76BCC0397}">
-  <dimension ref="A1:A10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="38">
-      <c r="A1" s="10" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="27">
-      <c r="A6" s="9" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="27">
-      <c r="A8" s="9" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="27">
-      <c r="A10" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BCA08CD-8B2B-8342-AD7A-8607137911D7}">
-  <dimension ref="A1:B28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16">
-      <c r="A1" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="16">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:2" ht="16">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" ht="16">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="16">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="16">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" ht="16">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="16">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="16">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:2" ht="16">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="16">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="16">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="16">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="16">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:2" ht="16">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="16">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="16">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="16">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="16">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="16">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="16">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="16">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="16">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D0F5B3C-3B62-E547-B2FE-FB328EF92B0F}">
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16">
-      <c r="A1" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="16">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:2" ht="16">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" ht="16">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:2" ht="16">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="16">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="16">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="16">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB2E96E1-5473-1D47-8AE1-F74BB4AA4671}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:V48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="191" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A3" zoomScale="191" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4375,9 +4783,6 @@
       <c r="C13" t="s">
         <v>187</v>
       </c>
-      <c r="E13" t="s">
-        <v>354</v>
-      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="C14" t="s">
@@ -4585,8 +4990,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9E5F1BE-CAE7-FC4B-A770-439AAA7080E2}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B137"/>
   <sheetViews>
     <sheetView topLeftCell="A97" zoomScale="200" workbookViewId="0">
@@ -5422,8 +5828,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46EA81F7-7AA6-E14E-81A8-BD8BA7512E49}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScale="158" workbookViewId="0">
@@ -5481,8 +5888,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC34DB7E-E9EC-B246-A3D0-6CB6E8B7F1E0}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5663,8 +6071,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE925AA8-D94D-1649-A537-A6CBDCF62DAF}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5814,8 +6223,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55FAE87-FF16-B44C-B357-5636A002D02D}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5889,8 +6299,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D0451AB-7776-0843-837C-777A72C3B9A8}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5973,243 +6384,6 @@
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{654DA9D1-CCD5-1048-BF73-DCBFCD8E9D40}">
-  <dimension ref="A1:V22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:22" ht="16">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="16">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="16">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="16">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="16">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="16">
-      <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-    </row>
-    <row r="7" spans="1:22" ht="16">
-      <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="16">
-      <c r="G8" s="1"/>
-      <c r="H8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="16">
-      <c r="G9" s="1"/>
-      <c r="H9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="16">
-      <c r="G10" s="1"/>
-      <c r="H10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="16">
-      <c r="G11" s="1"/>
-      <c r="H11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="16">
-      <c r="G12" s="1"/>
-      <c r="H12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="16">
-      <c r="G13" s="1"/>
-      <c r="H13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-    </row>
-    <row r="14" spans="1:22" ht="16">
-      <c r="M14" s="1"/>
-      <c r="N14" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="16">
-      <c r="M15" s="1"/>
-      <c r="N15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="16">
-      <c r="M16" s="1"/>
-      <c r="N16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="21:22" ht="16">
-      <c r="U21" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="21:22" ht="16">
-      <c r="U22" s="1"/>
-      <c r="V22" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/api method and action.xlsx
+++ b/api method and action.xlsx
@@ -2,33 +2,32 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skwong/CitizensBank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEDB52B-533B-7445-9CBD-22F3EA5C987E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB60585-301B-3F4E-9344-9A2D4F0FA2B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8540" yWindow="5640" windowWidth="31000" windowHeight="14080" xr2:uid="{9EB6AD79-4C8E-4B7D-81B4-9FB1B0E7DEC8}"/>
+    <workbookView xWindow="8540" yWindow="5640" windowWidth="31000" windowHeight="14080" activeTab="1" xr2:uid="{9EB6AD79-4C8E-4B7D-81B4-9FB1B0E7DEC8}"/>
   </bookViews>
   <sheets>
-    <sheet name="index" sheetId="18" r:id="rId1"/>
-    <sheet name="APIs" sheetId="1" r:id="rId2"/>
-    <sheet name="Project Structure" sheetId="6" r:id="rId3"/>
-    <sheet name="s3 terraForm" sheetId="17" r:id="rId4"/>
-    <sheet name="UI Project Structure" sheetId="16" r:id="rId5"/>
-    <sheet name="contoller.java" sheetId="10" r:id="rId6"/>
-    <sheet name="command request patterns" sheetId="11" r:id="rId7"/>
-    <sheet name="application.yml" sheetId="3" r:id="rId8"/>
-    <sheet name="applicationS3.yml" sheetId="4" r:id="rId9"/>
-    <sheet name="db migration code" sheetId="5" r:id="rId10"/>
-    <sheet name="dataSource.java" sheetId="2" r:id="rId11"/>
-    <sheet name="Api response and exceptionhandl" sheetId="12" r:id="rId12"/>
-    <sheet name="ApiException.java" sheetId="7" r:id="rId13"/>
-    <sheet name="UI Archit and layout" sheetId="15" r:id="rId14"/>
-    <sheet name="ApiExceptionHandler.java" sheetId="8" r:id="rId15"/>
-    <sheet name="ApiRequestException.java" sheetId="9" r:id="rId16"/>
+    <sheet name="APIs" sheetId="1" r:id="rId1"/>
+    <sheet name="Project Structure" sheetId="6" r:id="rId2"/>
+    <sheet name="s3 terraForm" sheetId="17" r:id="rId3"/>
+    <sheet name="UI Project Structure" sheetId="16" r:id="rId4"/>
+    <sheet name="contoller.java" sheetId="10" r:id="rId5"/>
+    <sheet name="command request patterns" sheetId="11" r:id="rId6"/>
+    <sheet name="application.yml" sheetId="3" r:id="rId7"/>
+    <sheet name="applicationS3.yml" sheetId="4" r:id="rId8"/>
+    <sheet name="db migration code" sheetId="5" r:id="rId9"/>
+    <sheet name="dataSource.java" sheetId="2" r:id="rId10"/>
+    <sheet name="Api response and exceptionhandl" sheetId="12" r:id="rId11"/>
+    <sheet name="ApiException.java" sheetId="7" r:id="rId12"/>
+    <sheet name="UI Archit and layout" sheetId="15" r:id="rId13"/>
+    <sheet name="ApiExceptionHandler.java" sheetId="8" r:id="rId14"/>
+    <sheet name="ApiRequestException.java" sheetId="9" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="355">
   <si>
     <t>Lender/Worklist/CreditProcessing/ssn/id</t>
   </si>
@@ -2564,52 +2563,7 @@
     <t>controllers-- restcontroller/requestMapping("api/vi/userProfile")</t>
   </si>
   <si>
-    <t>APIs</t>
-  </si>
-  <si>
-    <t>Project Structure</t>
-  </si>
-  <si>
-    <t>s3 terraForm</t>
-  </si>
-  <si>
-    <t>UI Project Structure</t>
-  </si>
-  <si>
-    <t>contoller.java</t>
-  </si>
-  <si>
-    <t>command request patterns</t>
-  </si>
-  <si>
-    <t>application.yml</t>
-  </si>
-  <si>
-    <t>applicationS3.yml</t>
-  </si>
-  <si>
-    <t>db migration code</t>
-  </si>
-  <si>
-    <t>dataSource.java</t>
-  </si>
-  <si>
-    <t>Api response and exceptionhandl</t>
-  </si>
-  <si>
-    <t>ApiException.java</t>
-  </si>
-  <si>
-    <t>UI Archit and layout</t>
-  </si>
-  <si>
-    <t>ApiExceptionHandler.java</t>
-  </si>
-  <si>
-    <t>ApiRequestException.java</t>
-  </si>
-  <si>
-    <t>index</t>
+    <t>Repository -- UserProfileDataAccessService or LoanDataAccessService</t>
   </si>
 </sst>
 </file>
@@ -3219,1227 +3173,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F7A0D8-F93F-224F-B5AA-481B7888E29B}">
-  <dimension ref="A1:A16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="5" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="5" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="5" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="5" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="5" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="5" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="5" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="5" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="5" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="5" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="5" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="5" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="5" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="5" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="5" t="s">
-        <v>368</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'index'!A1" display="index" xr:uid="{87E2773F-2E8B-6243-BBB6-38D54298CD70}"/>
-    <hyperlink ref="A2" location="'APIs'!A1" display="APIs" xr:uid="{EEF52191-EBD8-0147-94F3-C6CE0FE828CD}"/>
-    <hyperlink ref="A3" location="'Project Structure'!A1" display="Project Structure" xr:uid="{1EB25176-F9C5-AF43-B33C-F48092033B1D}"/>
-    <hyperlink ref="A4" location="'s3 terraForm'!A1" display="s3 terraForm" xr:uid="{9C491FF6-E88C-4640-A334-2B6EE3C4D875}"/>
-    <hyperlink ref="A5" location="'UI Project Structure'!A1" display="UI Project Structure" xr:uid="{9C2FBFA6-2150-5543-BE5A-150E6B8E550D}"/>
-    <hyperlink ref="A6" location="'contoller.java'!A1" display="contoller.java" xr:uid="{72F076F9-02F1-AD4A-A0EC-A9FE08F09FFC}"/>
-    <hyperlink ref="A7" location="'command request patterns'!A1" display="command request patterns" xr:uid="{9D014FE9-C6CE-A445-BEE2-489E58AFEE77}"/>
-    <hyperlink ref="A8" location="'application.yml'!A1" display="application.yml" xr:uid="{1F0D5A3B-D0A0-FC45-86FE-6C8CF9A788F3}"/>
-    <hyperlink ref="A9" location="'applicationS3.yml'!A1" display="applicationS3.yml" xr:uid="{D9978E22-5738-6043-B750-ADB26E916CFE}"/>
-    <hyperlink ref="A10" location="'db migration code'!A1" display="db migration code" xr:uid="{B7B1D506-588C-0245-9CDC-46EC10DE54BD}"/>
-    <hyperlink ref="A11" location="'dataSource.java'!A1" display="dataSource.java" xr:uid="{4BCEE363-D7F5-BE48-98FE-D8CD169AFD42}"/>
-    <hyperlink ref="A12" location="'Api response and exceptionhandl'!A1" display="Api response and exceptionhandl" xr:uid="{C2CBABDC-6639-7E44-B8FD-6701B488F93A}"/>
-    <hyperlink ref="A13" location="'ApiException.java'!A1" display="ApiException.java" xr:uid="{ED6B8700-3EFA-7F4B-A484-B6BC4C408D21}"/>
-    <hyperlink ref="A14" location="'UI Archit and layout'!A1" display="UI Archit and layout" xr:uid="{83284D58-31AC-7F43-9A05-EFE551D9C38F}"/>
-    <hyperlink ref="A15" location="'ApiExceptionHandler.java'!A1" display="ApiExceptionHandler.java" xr:uid="{D20D3CCA-2C3D-5B42-98AB-A765E5FBC0E1}"/>
-    <hyperlink ref="A16" location="'ApiRequestException.java'!A1" display="ApiRequestException.java" xr:uid="{FE6356CF-7F09-7546-8492-C83BB17E9C4B}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{654DA9D1-CCD5-1048-BF73-DCBFCD8E9D40}">
-  <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:V22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:22" ht="16">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="16">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="16">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="16">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="16">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="16">
-      <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-    </row>
-    <row r="7" spans="1:22" ht="16">
-      <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="16">
-      <c r="G8" s="1"/>
-      <c r="H8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="16">
-      <c r="G9" s="1"/>
-      <c r="H9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="16">
-      <c r="G10" s="1"/>
-      <c r="H10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="16">
-      <c r="G11" s="1"/>
-      <c r="H11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="16">
-      <c r="G12" s="1"/>
-      <c r="H12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="16">
-      <c r="G13" s="1"/>
-      <c r="H13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-    </row>
-    <row r="14" spans="1:22" ht="16">
-      <c r="M14" s="1"/>
-      <c r="N14" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="16">
-      <c r="M15" s="1"/>
-      <c r="N15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="16">
-      <c r="M16" s="1"/>
-      <c r="N16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="21:22" ht="16">
-      <c r="U21" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="21:22" ht="16">
-      <c r="U22" s="1"/>
-      <c r="V22" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A117A607-AB1F-D34C-A426-0BCC4DE0C715}">
-  <sheetPr codeName="Sheet10"/>
-  <dimension ref="A3:B22"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="3" spans="1:2" ht="16">
-      <c r="A3" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" ht="16">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="16">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="16">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:2" ht="16">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="16">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="16">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" ht="16">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="16">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="16">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="16">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="16">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="16">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="16">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="16">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="16">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861E1CE5-C9E9-964E-AC67-E96A96D98989}">
-  <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:L35"/>
-  <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:12" ht="38">
-      <c r="A1" s="10" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="21">
-      <c r="A4" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-    </row>
-    <row r="5" spans="1:12" ht="21">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-    </row>
-    <row r="6" spans="1:12" ht="21">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-    </row>
-    <row r="7" spans="1:12" ht="21">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-    </row>
-    <row r="8" spans="1:12" ht="21">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-    </row>
-    <row r="9" spans="1:12" ht="21">
-      <c r="A9" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-    </row>
-    <row r="10" spans="1:12" ht="21">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-    </row>
-    <row r="14" spans="1:12" ht="21">
-      <c r="A14" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="21">
-      <c r="A15" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="21">
-      <c r="A16" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="21">
-      <c r="A17" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="21">
-      <c r="A18" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="21">
-      <c r="A19" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="21">
-      <c r="A20" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="21">
-      <c r="A21" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="21">
-      <c r="A22" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="21">
-      <c r="A23" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="21">
-      <c r="A24" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="21">
-      <c r="A25" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="21">
-      <c r="A26" s="13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="21">
-      <c r="A27" s="13" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="21">
-      <c r="A28" s="13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="27">
-      <c r="A31" s="9" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="27">
-      <c r="A35" s="9" t="s">
-        <v>254</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D30C5DF-CB59-4F46-AD6F-36711B347907}">
-  <sheetPr codeName="Sheet12"/>
-  <dimension ref="A1:B32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16">
-      <c r="A1" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="16">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:2" ht="16">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" ht="16">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" ht="16">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:2" ht="16">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="16">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="16">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="16">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:2" ht="16">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="16">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="16">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="16">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="16">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="16">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="16">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="16">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" ht="16">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="16">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="16">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="16">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:2" ht="16">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="16">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="16">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="16">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="1:2" ht="16">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="16">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="16">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="16">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4C518E-F2A2-5B47-9518-14F76BCC0397}">
-  <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:A10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="38">
-      <c r="A1" s="10" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="27">
-      <c r="A6" s="9" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="27">
-      <c r="A8" s="9" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="27">
-      <c r="A10" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BCA08CD-8B2B-8342-AD7A-8607137911D7}">
-  <sheetPr codeName="Sheet14"/>
-  <dimension ref="A1:B28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16">
-      <c r="A1" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="16">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:2" ht="16">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" ht="16">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="16">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="16">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" ht="16">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="16">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="16">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:2" ht="16">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="16">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="16">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="16">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="16">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:2" ht="16">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="16">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="16">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="16">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="16">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="16">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="16">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="16">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="16">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D0F5B3C-3B62-E547-B2FE-FB328EF92B0F}">
-  <sheetPr codeName="Sheet15"/>
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16">
-      <c r="A1" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="16">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:2" ht="16">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" ht="16">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:2" ht="16">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="16">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="16">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="16">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F43C5E5B-DBC9-4B9E-A7DC-9895EA7BFFA4}">
-  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="158" workbookViewId="0">
@@ -4665,13 +3399,871 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A117A607-AB1F-D34C-A426-0BCC4DE0C715}">
+  <dimension ref="A3:B22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="1:2" ht="16">
+      <c r="A3" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" ht="16">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" ht="16">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" ht="16">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861E1CE5-C9E9-964E-AC67-E96A96D98989}">
+  <dimension ref="A1:L35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="38">
+      <c r="A1" s="10" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="21">
+      <c r="A4" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+    </row>
+    <row r="5" spans="1:12" ht="21">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+    </row>
+    <row r="6" spans="1:12" ht="21">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+    </row>
+    <row r="7" spans="1:12" ht="21">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+    </row>
+    <row r="8" spans="1:12" ht="21">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+    </row>
+    <row r="9" spans="1:12" ht="21">
+      <c r="A9" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" spans="1:12" ht="21">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="14" spans="1:12" ht="21">
+      <c r="A14" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="21">
+      <c r="A15" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="21">
+      <c r="A16" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="21">
+      <c r="A17" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="21">
+      <c r="A18" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="21">
+      <c r="A19" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="21">
+      <c r="A20" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="21">
+      <c r="A21" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="21">
+      <c r="A22" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="21">
+      <c r="A23" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="21">
+      <c r="A24" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="21">
+      <c r="A25" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="21">
+      <c r="A26" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="21">
+      <c r="A27" s="13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="21">
+      <c r="A28" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="27">
+      <c r="A31" s="9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="27">
+      <c r="A35" s="9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D30C5DF-CB59-4F46-AD6F-36711B347907}">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16">
+      <c r="A1" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2" ht="16">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" ht="16">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" ht="16">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" ht="16">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" ht="16">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" ht="16">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="16">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" ht="16">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="16">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="16">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="16">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2" ht="16">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="16">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="16">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="16">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4C518E-F2A2-5B47-9518-14F76BCC0397}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="38">
+      <c r="A1" s="10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="27">
+      <c r="A6" s="9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="27">
+      <c r="A8" s="9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="27">
+      <c r="A10" s="9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BCA08CD-8B2B-8342-AD7A-8607137911D7}">
+  <dimension ref="A1:B28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16">
+      <c r="A1" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2" ht="16">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" ht="16">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" ht="16">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" ht="16">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" ht="16">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="16">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="16">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="16">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="16">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="16">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D0F5B3C-3B62-E547-B2FE-FB328EF92B0F}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16">
+      <c r="A1" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2" ht="16">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" ht="16">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" ht="16">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB2E96E1-5473-1D47-8AE1-F74BB4AA4671}">
-  <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:V48"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="191" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="191" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4783,6 +4375,9 @@
       <c r="C13" t="s">
         <v>187</v>
       </c>
+      <c r="E13" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="C14" t="s">
@@ -4990,9 +4585,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9E5F1BE-CAE7-FC4B-A770-439AAA7080E2}">
-  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B137"/>
   <sheetViews>
     <sheetView topLeftCell="A97" zoomScale="200" workbookViewId="0">
@@ -5828,9 +5422,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46EA81F7-7AA6-E14E-81A8-BD8BA7512E49}">
-  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScale="158" workbookViewId="0">
@@ -5888,9 +5481,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC34DB7E-E9EC-B246-A3D0-6CB6E8B7F1E0}">
-  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6071,9 +5663,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE925AA8-D94D-1649-A537-A6CBDCF62DAF}">
-  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6223,9 +5814,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55FAE87-FF16-B44C-B357-5636A002D02D}">
-  <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6299,9 +5889,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D0451AB-7776-0843-837C-777A72C3B9A8}">
-  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6384,6 +5973,243 @@
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{654DA9D1-CCD5-1048-BF73-DCBFCD8E9D40}">
+  <dimension ref="A1:V22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:22" ht="16">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="16">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="16">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="16">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="16">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="16">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+    </row>
+    <row r="7" spans="1:22" ht="16">
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="16">
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="16">
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="16">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="16">
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="16">
+      <c r="G12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="16">
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+    </row>
+    <row r="14" spans="1:22" ht="16">
+      <c r="M14" s="1"/>
+      <c r="N14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="16">
+      <c r="M15" s="1"/>
+      <c r="N15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="16">
+      <c r="M16" s="1"/>
+      <c r="N16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="21:22" ht="16">
+      <c r="U21" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="21:22" ht="16">
+      <c r="U22" s="1"/>
+      <c r="V22" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
